--- a/src/main/webapp/modellist/主观题库表.xlsx
+++ b/src/main/webapp/modellist/主观题库表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>题目内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>啊啊啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -386,24 +390,35 @@
     <col min="1" max="1" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"0,1,2,3,4"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
